--- a/杂项/0/新建 Microsoft Excel 工作表.xlsx
+++ b/杂项/0/新建 Microsoft Excel 工作表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>频道</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +42,6 @@
   </si>
   <si>
     <t>with</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,7 +370,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K7" sqref="K7:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -406,8 +402,8 @@
       <c r="B2">
         <v>78</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
+      <c r="C2">
+        <v>8000</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -426,8 +422,8 @@
       <c r="B3">
         <v>78</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
+      <c r="C3">
+        <v>8000</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -446,8 +442,8 @@
       <c r="B4">
         <v>78</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
+      <c r="C4">
+        <v>8000</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -466,8 +462,8 @@
       <c r="B5">
         <v>78</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
+      <c r="C5">
+        <v>8000</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -486,8 +482,8 @@
       <c r="B6">
         <v>78</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
+      <c r="C6">
+        <v>8000</v>
       </c>
       <c r="D6">
         <v>1</v>
